--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.96037262099657</v>
+        <v>93.12277614511524</v>
       </c>
       <c r="D2" t="n">
-        <v>5.566542691442746</v>
+        <v>5.538519127604149</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.64791596926722</v>
+        <v>91.88531137361977</v>
       </c>
       <c r="D3" t="n">
-        <v>6.268955491643436</v>
+        <v>5.32967018008019</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.43882713820553</v>
+        <v>90.39491506063567</v>
       </c>
       <c r="D4" t="n">
-        <v>5.972721840232674</v>
+        <v>5.738049751726682</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.55620796842273</v>
+        <v>90.21727581621295</v>
       </c>
       <c r="D5" t="n">
-        <v>5.979745232945118</v>
+        <v>5.331627521029262</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.31910577078581</v>
+        <v>88.50028674703307</v>
       </c>
       <c r="D6" t="n">
-        <v>5.687917623317711</v>
+        <v>5.519406181485745</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.81055301736656</v>
+        <v>88.11215335374527</v>
       </c>
       <c r="D7" t="n">
-        <v>6.065604347043204</v>
+        <v>6.151121040479326</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.60499998545711</v>
+        <v>86.07462302996144</v>
       </c>
       <c r="D8" t="n">
-        <v>5.533841351529281</v>
+        <v>5.259199992103309</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.37642507551827</v>
+        <v>85.50542560642596</v>
       </c>
       <c r="D9" t="n">
-        <v>5.331334747900909</v>
+        <v>5.746367609457666</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.55242797301455</v>
+        <v>83.87685896559428</v>
       </c>
       <c r="D10" t="n">
-        <v>5.536524192763324</v>
+        <v>4.761055308547801</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.42626522759412</v>
+        <v>83.74801468959384</v>
       </c>
       <c r="D11" t="n">
-        <v>6.480763487574886</v>
+        <v>4.685860446188714</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.22378803949609</v>
+        <v>83.52519113806035</v>
       </c>
       <c r="D12" t="n">
-        <v>6.13474543104592</v>
+        <v>5.588763858681521</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.64650465782842</v>
+        <v>81.33145453127707</v>
       </c>
       <c r="D13" t="n">
-        <v>5.27496511385465</v>
+        <v>5.120870628388666</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.76770376241313</v>
+        <v>79.83739550042138</v>
       </c>
       <c r="D14" t="n">
-        <v>5.566335450781319</v>
+        <v>5.31655776081323</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.99715856503585</v>
+        <v>79.37626364642345</v>
       </c>
       <c r="D15" t="n">
-        <v>5.388460758281554</v>
+        <v>5.048734345462471</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.9458581747583</v>
+        <v>78.50382751618248</v>
       </c>
       <c r="D16" t="n">
-        <v>5.707787634029562</v>
+        <v>5.165838968094442</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.73900171218965</v>
+        <v>76.71033924093781</v>
       </c>
       <c r="D17" t="n">
-        <v>4.988570380136084</v>
+        <v>5.008958984827469</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.43301774126306</v>
+        <v>76.38676338258169</v>
       </c>
       <c r="D18" t="n">
-        <v>5.952914178497736</v>
+        <v>5.018224751418712</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.64952366023479</v>
+        <v>75.79650247231888</v>
       </c>
       <c r="D19" t="n">
-        <v>5.909095806564432</v>
+        <v>4.852618123442356</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.5359897853767</v>
+        <v>73.96736815437525</v>
       </c>
       <c r="D20" t="n">
-        <v>5.334847685076876</v>
+        <v>5.324232444526775</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.21660437919806</v>
+        <v>72.66962699629515</v>
       </c>
       <c r="D21" t="n">
-        <v>5.166071423037497</v>
+        <v>5.423411202708664</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.29423766938255</v>
+        <v>71.67552016529521</v>
       </c>
       <c r="D22" t="n">
-        <v>5.965308779021168</v>
+        <v>5.250566776021097</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.75117007923998</v>
+        <v>70.5406288514435</v>
       </c>
       <c r="D23" t="n">
-        <v>5.693833103053192</v>
+        <v>4.986249425734227</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.07103331242787</v>
+        <v>68.73756559944439</v>
       </c>
       <c r="D24" t="n">
-        <v>5.520656587616695</v>
+        <v>5.262369376438206</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.78262043728202</v>
+        <v>68.37248689228274</v>
       </c>
       <c r="D25" t="n">
-        <v>4.444339112574884</v>
+        <v>4.987991396421418</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.19301435926329</v>
+        <v>68.30342913447049</v>
       </c>
       <c r="D26" t="n">
-        <v>5.018741020257957</v>
+        <v>5.358807699942972</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.79457119970411</v>
+        <v>66.03047034104765</v>
       </c>
       <c r="D27" t="n">
-        <v>5.390923486143759</v>
+        <v>5.520727048388965</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.23574446403317</v>
+        <v>65.25899105580847</v>
       </c>
       <c r="D28" t="n">
-        <v>5.288402644352118</v>
+        <v>5.021495028871175</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.17675108413673</v>
+        <v>63.49758766382612</v>
       </c>
       <c r="D29" t="n">
-        <v>4.97916133891693</v>
+        <v>4.896096170150305</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.87156463383455</v>
+        <v>62.7640404443417</v>
       </c>
       <c r="D30" t="n">
-        <v>5.785767236285127</v>
+        <v>5.092973727425622</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.27326048249486</v>
+        <v>61.93576901730282</v>
       </c>
       <c r="D31" t="n">
-        <v>5.445414656060416</v>
+        <v>5.862912882882788</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.72416040539295</v>
+        <v>61.75478569134121</v>
       </c>
       <c r="D32" t="n">
-        <v>5.229674059443948</v>
+        <v>6.019221816627513</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.30430721420792</v>
+        <v>60.17762469756784</v>
       </c>
       <c r="D33" t="n">
-        <v>4.917082006511064</v>
+        <v>5.555472040640862</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.95426728182613</v>
+        <v>58.8357398930753</v>
       </c>
       <c r="D34" t="n">
-        <v>4.999100834441419</v>
+        <v>5.440535394881609</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.78159502171525</v>
+        <v>57.83288978597907</v>
       </c>
       <c r="D35" t="n">
-        <v>6.239728515470797</v>
+        <v>4.643249709243114</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.30778695916815</v>
+        <v>57.56067892840796</v>
       </c>
       <c r="D36" t="n">
-        <v>5.543462403525338</v>
+        <v>5.486479477259966</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.38053891589013</v>
+        <v>55.07263440416746</v>
       </c>
       <c r="D37" t="n">
-        <v>5.500674996375518</v>
+        <v>5.172431605966963</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.89584124480695</v>
+        <v>54.38585920265144</v>
       </c>
       <c r="D38" t="n">
-        <v>5.594556390452384</v>
+        <v>5.107152555723998</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.7050690432113</v>
+        <v>53.88104738337617</v>
       </c>
       <c r="D39" t="n">
-        <v>5.539905768370474</v>
+        <v>5.029550224086288</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.09587453218565</v>
+        <v>52.87799895786271</v>
       </c>
       <c r="D40" t="n">
-        <v>5.663349510031822</v>
+        <v>5.292011157583442</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.14131655179644</v>
+        <v>51.82746425732601</v>
       </c>
       <c r="D41" t="n">
-        <v>5.464670228828803</v>
+        <v>5.545884887864061</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.97435663384288</v>
+        <v>50.75482135876295</v>
       </c>
       <c r="D42" t="n">
-        <v>5.243050628242618</v>
+        <v>5.708100629612644</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.50791709529738</v>
+        <v>49.44940604164459</v>
       </c>
       <c r="D43" t="n">
-        <v>5.490946158647589</v>
+        <v>5.25788392239315</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.50035959654493</v>
+        <v>47.15611503915888</v>
       </c>
       <c r="D44" t="n">
-        <v>4.799799651388445</v>
+        <v>5.485320273966891</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.07950382824418</v>
+        <v>48.11159170897875</v>
       </c>
       <c r="D45" t="n">
-        <v>5.839621087978031</v>
+        <v>4.829270472484398</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.11569408696416</v>
+        <v>46.51733299662462</v>
       </c>
       <c r="D46" t="n">
-        <v>5.406311716856872</v>
+        <v>5.786281356900935</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.03941249663432</v>
+        <v>45.46482689743409</v>
       </c>
       <c r="D47" t="n">
-        <v>5.252768212306989</v>
+        <v>5.137526245752242</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.38965176871687</v>
+        <v>43.20238273475064</v>
       </c>
       <c r="D48" t="n">
-        <v>5.2664791140826</v>
+        <v>5.465925429858038</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.23085633560218</v>
+        <v>43.82076635527457</v>
       </c>
       <c r="D49" t="n">
-        <v>6.063894519608856</v>
+        <v>5.66297050176973</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.65301796809155</v>
+        <v>42.09675882532451</v>
       </c>
       <c r="D50" t="n">
-        <v>5.670370014519622</v>
+        <v>4.754522251542204</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.78046193239997</v>
+        <v>40.74525884650768</v>
       </c>
       <c r="D51" t="n">
-        <v>5.853360997350345</v>
+        <v>5.766986591775282</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.93596391924203</v>
+        <v>40.52159247640259</v>
       </c>
       <c r="D52" t="n">
-        <v>5.616189294342646</v>
+        <v>5.380394443864678</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.6215147735879</v>
+        <v>39.89933863995771</v>
       </c>
       <c r="D53" t="n">
-        <v>4.667861282997829</v>
+        <v>5.091981904156046</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.65049265964534</v>
+        <v>38.53851327217125</v>
       </c>
       <c r="D54" t="n">
-        <v>6.103486940897867</v>
+        <v>4.660586402829031</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.47052368412417</v>
+        <v>36.47366488061478</v>
       </c>
       <c r="D55" t="n">
-        <v>4.591892213195225</v>
+        <v>4.52798118318717</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.77047523736496</v>
+        <v>35.95519419224761</v>
       </c>
       <c r="D56" t="n">
-        <v>5.449017600228173</v>
+        <v>5.241325308573049</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.02570908291438</v>
+        <v>34.77360272942034</v>
       </c>
       <c r="D57" t="n">
-        <v>5.215909148309483</v>
+        <v>6.186860213885712</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.53679397053607</v>
+        <v>34.06662426823249</v>
       </c>
       <c r="D58" t="n">
-        <v>5.551808332784312</v>
+        <v>5.650826445575914</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.36941600664326</v>
+        <v>32.87943825995758</v>
       </c>
       <c r="D59" t="n">
-        <v>5.67108855084199</v>
+        <v>5.209881917382829</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.13209157664929</v>
+        <v>31.30731172449767</v>
       </c>
       <c r="D60" t="n">
-        <v>5.737296122628143</v>
+        <v>4.927037505630333</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.42972349903274</v>
+        <v>30.31710771850835</v>
       </c>
       <c r="D61" t="n">
-        <v>5.288608204999665</v>
+        <v>4.802804665137232</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.93416004251654</v>
+        <v>30.57990056062658</v>
       </c>
       <c r="D62" t="n">
-        <v>5.497483677459571</v>
+        <v>5.235133669002972</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.45838626826962</v>
+        <v>29.02754373344962</v>
       </c>
       <c r="D63" t="n">
-        <v>4.925635304858793</v>
+        <v>5.031803971316822</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.69155563550267</v>
+        <v>28.28995660108079</v>
       </c>
       <c r="D64" t="n">
-        <v>4.985224064456751</v>
+        <v>5.285610322865771</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.2848776336718</v>
+        <v>26.44810367529054</v>
       </c>
       <c r="D65" t="n">
-        <v>5.661439947550369</v>
+        <v>6.066221262330404</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.69744819793096</v>
+        <v>26.06059716292178</v>
       </c>
       <c r="D66" t="n">
-        <v>5.661296259444319</v>
+        <v>5.067798678578414</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.43671862261446</v>
+        <v>24.76242474299737</v>
       </c>
       <c r="D67" t="n">
-        <v>5.566401680844757</v>
+        <v>5.164598312631756</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.71180348727921</v>
+        <v>23.76499269133623</v>
       </c>
       <c r="D68" t="n">
-        <v>5.273958190604776</v>
+        <v>5.587758454911344</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.08845730772904</v>
+        <v>24.07537398837191</v>
       </c>
       <c r="D69" t="n">
-        <v>5.713749640588748</v>
+        <v>5.308792032585266</v>
       </c>
     </row>
   </sheetData>
